--- a/genshin/552764910926300412_2021-07-29_14-10-10.xlsx
+++ b/genshin/552764910926300412_2021-07-29_14-10-10.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5132364977</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:50:23</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44419.90998842593</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,10 +626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-09 17:57:57</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44417.74857638889</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -683,10 +695,8 @@
           <t>5104286827</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-08 18:35:51</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44416.77489583333</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -762,10 +772,8 @@
           <t>5104282320</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-08 18:35:33</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44416.7746875</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -841,10 +849,8 @@
           <t>5095432423</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-07 18:13:50</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44415.75960648148</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -912,10 +918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-06 09:28:59</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44414.39512731481</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -979,10 +983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-05 12:01:21</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44413.5009375</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1047,10 +1049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-03 21:12:04</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44411.88337962963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1118,10 +1118,8 @@
           <t>5060523208</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-03 15:44:38</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44411.65599537037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1197,10 +1195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-03 14:52:54</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44411.62006944444</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1268,10 +1264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-03 12:48:25</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44411.53362268519</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1343,10 +1337,8 @@
           <t>5059304904</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-03 12:45:16</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44411.53143518518</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1418,10 +1410,8 @@
           <t>5059302065</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-03 12:44:20</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44411.53078703704</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1493,10 +1483,8 @@
           <t>5058009846</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-03 09:43:45</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44411.40538194445</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1572,10 +1560,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-03 08:06:32</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44411.33787037037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1639,10 +1625,8 @@
           <t>5056175264</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-02 23:38:30</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44410.98506944445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1706,10 +1690,8 @@
           <t>5055562584</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-02 22:26:39</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44410.93517361111</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1778,10 +1760,8 @@
           <t>5019291002</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-02 20:19:32</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44410.84689814815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1858,10 +1838,8 @@
           <t>5019291002</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-02 15:29:44</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44410.64564814815</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1933,10 +1911,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-02 15:26:51</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44410.64364583333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2013,10 +1989,8 @@
           <t>5019291002</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-02 15:26:11</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44410.64318287037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2093,10 +2067,8 @@
           <t>5050494247</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-02 11:04:18</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44410.46131944445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2160,10 +2132,8 @@
           <t>5019172731</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-02 01:39:30</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44410.06909722222</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2231,10 +2201,8 @@
           <t>5048431682</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-02 00:14:05</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44410.00978009259</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2302,10 +2270,8 @@
           <t>5046423547</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-01 20:14:16</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44409.84324074074</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2381,10 +2347,8 @@
           <t>5023541006</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:31:30</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44409.81354166667</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -2456,10 +2420,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:34:47</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44409.64915509259</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2523,10 +2485,8 @@
           <t>5029740166</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:09:11</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44409.50637731481</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2598,10 +2558,8 @@
           <t>5042875332</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-01 11:55:06</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44409.49659722222</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2673,10 +2631,8 @@
           <t>5029740166</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-01 11:17:42</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44409.470625</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2740,10 +2696,8 @@
           <t>5041029000</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-01 11:15:00</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44409.46875</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2807,10 +2761,8 @@
           <t>5042252578</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-01 10:25:44</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44409.43453703704</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2882,10 +2834,8 @@
           <t>5041410633</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-01 07:26:53</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44409.31033564815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2957,10 +2907,8 @@
           <t>5041029000</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-01 03:19:43</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44409.13869212963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3024,10 +2972,8 @@
           <t>5041029000</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-01 03:08:04</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44409.13060185185</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3099,10 +3045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-31 23:55:28</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44408.99685185185</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3166,10 +3110,8 @@
           <t>5020235253</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-31 23:53:48</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44408.99569444444</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3233,10 +3175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-31 22:20:23</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44408.93082175926</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3301,10 +3241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-31 21:25:10</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44408.89247685186</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3372,10 +3310,8 @@
           <t>5038135901</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-31 20:09:32</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44408.8399537037</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3447,10 +3383,8 @@
           <t>5037796868</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-31 19:25:44</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44408.80953703704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3522,10 +3456,8 @@
           <t>5036863931</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:30:27</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44408.72947916666</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3597,10 +3529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:10:22</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44408.7155324074</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3668,10 +3598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:12:57</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44408.55065972222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3735,10 +3663,8 @@
           <t>5034739067</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:20:10</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44408.51400462963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3810,10 +3736,8 @@
           <t>5034368915</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:30:25</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44408.47945601852</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3889,10 +3813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:29:17</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44408.47866898148</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3969,10 +3891,8 @@
           <t>5034300342</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:20:02</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44408.47224537037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4040,10 +3960,8 @@
           <t>5020778132</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-31 09:25:28</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44408.39268518519</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4107,10 +4025,8 @@
           <t>5029219088</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-31 08:46:11</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44408.36540509259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4174,10 +4090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-31 02:40:29</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44408.11144675926</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4241,10 +4155,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-31 01:08:16</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44408.04740740741</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4316,10 +4228,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-31 00:14:54</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44408.01034722223</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4387,10 +4297,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-31 00:09:48</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44408.00680555555</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4458,10 +4366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-30 22:36:49</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44407.9422337963</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4537,10 +4443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-30 21:28:41</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44407.89491898148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4609,10 +4513,8 @@
           <t>5030261447</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-30 20:35:55</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44407.85827546296</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4676,10 +4578,8 @@
           <t>5030118552</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-30 20:18:48</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44407.84638888889</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4747,10 +4647,8 @@
           <t>5029740166</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-30 19:30:32</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44407.81287037037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4822,10 +4720,8 @@
           <t>5019637091</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-30 19:03:13</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44407.79390046297</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4893,10 +4789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:57:26</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44407.78988425926</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4960,10 +4854,8 @@
           <t>5019637091</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:39:59</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44407.7777662037</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5027,10 +4919,8 @@
           <t>5029219088</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:31:54</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44407.77215277778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5094,10 +4984,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:18:05</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44407.76255787037</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5169,10 +5057,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:07:11</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44407.75498842593</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5240,10 +5126,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:33:12</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44407.73138888889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5307,10 +5191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:58:17</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44407.7071412037</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5374,10 +5256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:57:58</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44407.66525462963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5454,10 +5334,8 @@
           <t>5027967017</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:47:49</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44407.65820601852</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5529,10 +5407,8 @@
           <t>5019379362</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:01:52</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44407.62629629629</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5596,10 +5472,8 @@
           <t>5027522239</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-30 14:37:41</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44407.60950231482</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5669,10 +5543,8 @@
           <t>5027376314</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-30 14:13:47</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44407.59290509259</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5736,10 +5608,8 @@
           <t>5027358374</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-30 14:12:22</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44407.5919212963</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5803,10 +5673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:52:19</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44407.57799768518</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5874,10 +5742,8 @@
           <t>5027197321</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:48:44</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44407.57550925926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5945,10 +5811,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:27:42</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44407.56090277778</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6008,10 +5872,8 @@
           <t>5023669287</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:22:52</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44407.5575462963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6079,10 +5941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-30 12:59:28</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44407.54129629629</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6156,10 +6016,8 @@
           <t>5019836864</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-30 12:35:12</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44407.52444444445</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6227,10 +6085,8 @@
           <t>5026576873</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-30 12:28:30</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44407.51979166667</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6298,10 +6154,8 @@
           <t>5025264226</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-30 12:15:05</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44407.51047453703</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6365,10 +6219,8 @@
           <t>5023669287</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-30 12:12:49</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44407.50890046296</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6436,10 +6288,8 @@
           <t>5019637091</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-30 11:43:54</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44407.48881944444</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6515,10 +6365,8 @@
           <t>5025893736</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-30 11:31:34</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44407.48025462963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6582,10 +6430,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-30 11:22:01</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44407.47362268518</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6661,10 +6507,8 @@
           <t>5025991498</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-30 11:09:03</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44407.46461805556</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6743,10 +6587,8 @@
           <t>5025959315</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-30 11:05:14</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44407.46196759259</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6806,10 +6648,8 @@
           <t>5025954016</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-30 11:04:02</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44407.46113425926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6869,10 +6709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-30 11:03:20</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44407.46064814815</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6944,10 +6782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:59:30</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44407.45798611111</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7011,10 +6847,8 @@
           <t>5025893736</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:54:40</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44407.45462962963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7086,10 +6920,8 @@
           <t>5019361472</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:38:23</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44407.44332175926</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7161,10 +6993,8 @@
           <t>5025658313</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:16:55</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44407.42841435185</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7232,10 +7062,8 @@
           <t>5023669287</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:14:37</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44407.42681712963</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7303,10 +7131,8 @@
           <t>5023669287</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:13:58</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44407.42636574074</v>
       </c>
       <c r="I96" t="n">
         <v>14</v>
@@ -7370,10 +7196,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:12:28</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44407.42532407407</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7437,10 +7261,8 @@
           <t>5025264226</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:08:03</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44407.42225694445</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7501,10 +7323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:56:06</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44407.41395833333</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7572,10 +7392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:47:42</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44407.408125</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7639,10 +7457,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:42:03</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44407.40420138889</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7714,10 +7530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:29:15</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44407.3953125</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7785,10 +7599,8 @@
           <t>5025354871</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:22:43</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44407.39077546296</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7864,10 +7676,8 @@
           <t>5020235253</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:15:21</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44407.38565972223</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7943,10 +7753,8 @@
           <t>5025264226</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:04:18</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44407.37798611111</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8010,10 +7818,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:01:05</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44407.37575231482</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8077,10 +7883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:41:59</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44407.36248842593</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8148,10 +7952,8 @@
           <t>5024067777</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:45:56</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44407.32356481482</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8211,10 +8013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:25:47</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44407.30957175926</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -8282,10 +8082,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:21:51</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44407.26517361111</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8357,10 +8155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-30 05:34:12</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44407.23208333334</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8424,10 +8220,8 @@
           <t>5024700949</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-30 05:03:41</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44407.2108912037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8499,10 +8293,8 @@
           <t>5019216888</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-30 04:30:14</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44407.18766203704</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8571,10 +8363,8 @@
           <t>5024625778</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-30 03:55:16</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44407.16337962963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8642,10 +8432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-30 03:33:05</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44407.14797453704</v>
       </c>
       <c r="I115" t="n">
         <v>27</v>
@@ -8709,10 +8497,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-30 03:12:21</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44407.13357638889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8780,10 +8566,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-30 02:24:20</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44407.10023148148</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8855,10 +8639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-30 02:02:16</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44407.08490740741</v>
       </c>
       <c r="I118" t="n">
         <v>9</v>
@@ -8930,10 +8712,8 @@
           <t>5024332136</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:47:18</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44407.07451388889</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9005,10 +8785,8 @@
           <t>5023669287</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:34:39</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44407.06572916666</v>
       </c>
       <c r="I120" t="n">
         <v>19</v>
@@ -9076,10 +8854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:30:14</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44407.06266203704</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9155,10 +8931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:23:15</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44407.0578125</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9234,10 +9008,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:17:39</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44407.05392361111</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9301,10 +9073,8 @@
           <t>5024163905</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:08:19</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44407.04744212963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9376,10 +9146,8 @@
           <t>5024067777</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:49:30</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44407.034375</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9448,10 +9216,8 @@
           <t>5024058270</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:47:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44407.03313657407</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9520,10 +9286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:34:28</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44407.02393518519</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9583,10 +9347,8 @@
           <t>5023954586</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:31:26</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44407.02182870371</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9655,10 +9417,8 @@
           <t>5023952571</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:30:28</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44407.02115740741</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9727,10 +9487,8 @@
           <t>5023943443</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:28:36</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44407.01986111111</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9799,10 +9557,8 @@
           <t>5023935374</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:27:04</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44407.0187962963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9871,10 +9627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:07:15</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44407.00503472222</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9938,10 +9692,8 @@
           <t>5023772440</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:04:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44407.0028125</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10009,10 +9761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:59:26</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44406.99960648148</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10076,10 +9826,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:55:07</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44406.9966087963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10143,10 +9891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:53:41</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44406.99561342593</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10210,10 +9956,8 @@
           <t>5023680091</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:51:31</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44406.99410879629</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10285,10 +10029,8 @@
           <t>5023669287</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:51:12</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44406.99388888889</v>
       </c>
       <c r="I138" t="n">
         <v>15</v>
@@ -10352,10 +10094,8 @@
           <t>5023541006</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:35:10</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44406.98275462963</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10419,10 +10159,8 @@
           <t>5023541006</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:34:27</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44406.98225694444</v>
       </c>
       <c r="I140" t="n">
         <v>5</v>
@@ -10491,10 +10229,8 @@
           <t>5020416506</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:31:35</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44406.9802662037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10562,10 +10298,8 @@
           <t>5023482043</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:27:23</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44406.97734953704</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10633,10 +10367,8 @@
           <t>5020235253</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:24:48</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44406.97555555555</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10712,10 +10444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:24:01</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44406.97501157408</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10787,10 +10517,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:16:04</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44406.96949074074</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10862,10 +10590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:05:59</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44406.96248842592</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10929,10 +10655,8 @@
           <t>5023288310</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:05:32</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44406.96217592592</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11008,10 +10732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:04:43</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44406.96160879629</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11079,10 +10801,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:03:53</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44406.96103009259</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11160,10 +10880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:02:34</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44406.96011574074</v>
       </c>
       <c r="I150" t="n">
         <v>5</v>
@@ -11235,10 +10953,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:01:56</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44406.95967592593</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11314,10 +11030,8 @@
           <t>5023255020</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:01:12</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44406.95916666667</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11393,10 +11107,8 @@
           <t>5019976424</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:56:19</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44406.95577546296</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11460,10 +11172,8 @@
           <t>5019397687</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:48:01</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44406.95001157407</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11523,10 +11233,8 @@
           <t>5019637091</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:28:20</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44406.93634259259</v>
       </c>
       <c r="I155" t="n">
         <v>4</v>
@@ -11586,10 +11294,8 @@
           <t>5020235253</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:23:13</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44406.93278935185</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11661,10 +11367,8 @@
           <t>5022902100</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:22:45</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44406.93246527778</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11740,10 +11444,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:56:43</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44406.91438657408</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11813,10 +11515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:55:45</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44406.91371527778</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11892,10 +11592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:54:54</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44406.913125</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11955,10 +11653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:49:32</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44406.90939814815</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12026,10 +11722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:40:28</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44406.90310185185</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12093,10 +11787,8 @@
           <t>5019416617</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:39:31</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44406.90244212963</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12164,10 +11856,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:33:40</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44406.89837962963</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12231,10 +11921,8 @@
           <t>5022441773</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:31:07</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44406.8966087963</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12306,10 +11994,8 @@
           <t>5022441526</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:31:01</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44406.89653935185</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12385,10 +12071,8 @@
           <t>5019172731</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:30:09</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44406.8959375</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12460,10 +12144,8 @@
           <t>5020235253</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:23:49</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44406.89153935185</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12539,10 +12221,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:23:36</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44406.89138888889</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12602,10 +12282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:22:11</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44406.89040509259</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12681,10 +12359,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:21:15</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44406.88975694445</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -12756,10 +12432,8 @@
           <t>5022341649</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:18:56</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44406.88814814815</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12827,10 +12501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:18:02</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44406.88752314815</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12894,10 +12566,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:10:30</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44406.88229166667</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -12967,10 +12637,8 @@
           <t>5022266206</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:09:42</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44406.88173611111</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13046,10 +12714,8 @@
           <t>5022248649</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:08:41</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44406.88103009259</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13125,10 +12791,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:49</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44406.87903935185</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13196,10 +12860,8 @@
           <t>5022226105</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:31</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44406.87883101852</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13267,10 +12929,8 @@
           <t>5019797907</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:01:51</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44406.87628472222</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13338,10 +12998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:01:21</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44406.8759375</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13421,10 +13079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:00:27</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44406.8753125</v>
       </c>
       <c r="I181" t="n">
         <v>11</v>
@@ -13488,10 +13144,8 @@
           <t>5019633154</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:46:29</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44406.86561342593</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13568,10 +13222,8 @@
           <t>5022049175</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:44:17</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44406.86408564815</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13643,10 +13295,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:39:06</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44406.86048611111</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13716,10 +13366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:31:33</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44406.85524305556</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13791,10 +13439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:31:18</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44406.85506944444</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13870,10 +13516,8 @@
           <t>5021889664</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:49</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44406.84987268518</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13941,10 +13585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:22:55</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44406.84924768518</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14012,10 +13654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:18:17</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44406.84603009259</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14079,10 +13719,8 @@
           <t>5021838358</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:17:38</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44406.8455787037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14150,10 +13788,8 @@
           <t>5021825213</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:43</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44406.84355324074</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14225,10 +13861,8 @@
           <t>5021805980</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:58</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44406.84233796296</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14304,10 +13938,8 @@
           <t>5021696847</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:14</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44406.84113425926</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14371,10 +14003,8 @@
           <t>5019177410</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:15</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44406.83836805556</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14443,10 +14073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:30</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44406.83784722222</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14514,10 +14142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:02</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44406.83405092593</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14581,10 +14207,8 @@
           <t>5021696847</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:14</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44406.83349537037</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14652,10 +14276,8 @@
           <t>5020511069</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:10</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44406.83067129629</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14731,10 +14353,8 @@
           <t>5021637120</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:21</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44406.82871527778</v>
       </c>
       <c r="I199" t="n">
         <v>4</v>
@@ -14802,10 +14422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:18</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44406.82729166667</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -14881,10 +14499,8 @@
           <t>5021618081</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:41</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44406.82686342593</v>
       </c>
       <c r="I201" t="n">
         <v>6</v>
@@ -14952,10 +14568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:48</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44406.82416666667</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15031,10 +14645,8 @@
           <t>5019172731</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:57</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44406.81871527778</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15098,10 +14710,8 @@
           <t>5021517240</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:38:40</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44406.81851851852</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -15165,10 +14775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:36:48</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44406.81722222222</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15240,10 +14848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:29</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44406.81630787037</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15319,10 +14925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:35:26</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44406.81627314815</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15390,10 +14994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:34:36</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44406.81569444444</v>
       </c>
       <c r="I208" t="n">
         <v>2</v>
@@ -15461,10 +15063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:30:39</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44406.81295138889</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15536,10 +15136,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:26:56</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44406.81037037037</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15600,10 +15198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:26:46</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44406.81025462963</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15667,10 +15263,8 @@
           <t>5021409057</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:25:34</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44406.8094212963</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15730,10 +15324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:23:01</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44406.80765046296</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15801,10 +15393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:20:43</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44406.80605324074</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15872,10 +15462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:20:32</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44406.80592592592</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15951,10 +15539,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:13:20</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44406.80092592593</v>
       </c>
       <c r="I216" t="n">
         <v>11</v>
@@ -16018,10 +15604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:12:34</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44406.80039351852</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16093,10 +15677,8 @@
           <t>5021282758</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:10:02</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44406.79863425926</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16164,10 +15746,8 @@
           <t>5020235253</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:08:44</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44406.79773148148</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16239,10 +15819,8 @@
           <t>5019267122</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:05:41</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44406.79561342593</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16318,10 +15896,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:03:29</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44406.79408564815</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16381,10 +15957,8 @@
           <t>5019976424</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:03:06</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44406.79381944444</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16452,10 +16026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:02:10</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44406.7931712963</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16515,10 +16087,8 @@
           <t>5021207181</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:01:47</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44406.7929050926</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16578,10 +16148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:01:42</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44406.79284722222</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16657,10 +16225,8 @@
           <t>5021205286</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:01:07</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44406.79244212963</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16728,10 +16294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:00:36</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44406.79208333333</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16795,10 +16359,8 @@
           <t>5021200884</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:59:52</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44406.79157407407</v>
       </c>
       <c r="I228" t="n">
         <v>5</v>
@@ -16858,10 +16420,8 @@
           <t>5021179709</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:59:01</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44406.79098379629</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -16921,10 +16481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:52:06</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44406.78618055556</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -16992,10 +16550,8 @@
           <t>5019984554</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:51:11</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44406.78554398148</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17063,10 +16619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:47:53</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44406.78325231482</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17142,10 +16696,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:47:41</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44406.78311342592</v>
       </c>
       <c r="I233" t="n">
         <v>4</v>
@@ -17221,10 +16773,8 @@
           <t>5020610837</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:46:31</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44406.78230324074</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17300,10 +16850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:46:07</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44406.78202546296</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17367,10 +16915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:45:19</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44406.78146990741</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17434,10 +16980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:40:40</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44406.77824074074</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17509,10 +17053,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:39:48</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44406.77763888889</v>
       </c>
       <c r="I238" t="n">
         <v>19</v>
@@ -17584,10 +17126,8 @@
           <t>5019416617</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:38:39</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44406.77684027778</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17651,10 +17191,8 @@
           <t>5020992983</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:36:14</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44406.77516203704</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17718,10 +17256,8 @@
           <t>5020983538</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:35:57</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44406.77496527778</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -17781,10 +17317,8 @@
           <t>5019416617</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:31:01</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44406.77153935185</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17856,10 +17390,8 @@
           <t>5019416617</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:30:05</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44406.77089120371</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -17931,10 +17463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:29:26</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44406.77043981481</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18006,10 +17536,8 @@
           <t>5020910448</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:26:09</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44406.76815972223</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18077,10 +17605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:25:07</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44406.76744212963</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18144,10 +17670,8 @@
           <t>5020852891</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:20:15</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44406.7640625</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18219,10 +17743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:16:49</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44406.76167824074</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18294,10 +17816,8 @@
           <t>5020811329</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:15:23</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44406.76068287037</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18369,10 +17889,8 @@
           <t>5020791980</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:13:48</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44406.75958333333</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18444,10 +17962,8 @@
           <t>5020778132</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:12:22</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44406.75858796296</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18516,10 +18032,8 @@
           <t>5019976424</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:12:14</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44406.75849537037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18595,10 +18109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:11:54</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44406.75826388889</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18670,10 +18182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:11:01</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44406.75765046296</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18741,10 +18251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:10:29</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44406.75728009259</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18816,10 +18324,8 @@
           <t>5020753141</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:09:26</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44406.75655092593</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -18888,10 +18394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:04:32</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44406.75314814815</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -18960,10 +18464,8 @@
           <t>5020715088</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:03:59</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44406.7527662037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19031,10 +18533,8 @@
           <t>5020697258</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:02:53</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44406.75200231482</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19106,10 +18606,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:02:11</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44406.7515162037</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19169,10 +18667,8 @@
           <t>5020684588</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:01:52</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44406.75129629629</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19244,10 +18740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:00:34</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44406.75039351852</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19311,10 +18805,8 @@
           <t>5020034681</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:59:02</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44406.74932870371</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19382,10 +18874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:58:25</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44406.74890046296</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19461,10 +18951,8 @@
           <t>5020416506</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:57:24</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44406.74819444444</v>
       </c>
       <c r="I265" t="n">
         <v>5</v>
@@ -19532,10 +19020,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:56:19</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44406.74744212963</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19611,10 +19097,8 @@
           <t>5020641821</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:56:03</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44406.74725694444</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19682,10 +19166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:55:49</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44406.7470949074</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19761,10 +19243,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:55:17</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44406.74672453704</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19836,10 +19316,8 @@
           <t>5020610837</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:52:19</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44406.74466435185</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19903,10 +19381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:50:09</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44406.74315972222</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -19971,10 +19447,8 @@
           <t>5020235253</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:49:33</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44406.74274305555</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20053,10 +19527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:49:29</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44406.74269675926</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20124,10 +19596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:48:41</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44406.7421412037</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20195,10 +19665,8 @@
           <t>5020568811</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:47:53</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44406.74158564815</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20262,10 +19730,8 @@
           <t>5020572379</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:47:35</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44406.74137731481</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20333,10 +19799,8 @@
           <t>5020544015</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:44:36</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44406.73930555556</v>
       </c>
       <c r="I277" t="n">
         <v>6</v>
@@ -20412,10 +19876,8 @@
           <t>5020550631</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:44:34</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44406.7392824074</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20483,10 +19945,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:44:33</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44406.73927083334</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20554,10 +20014,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:44:12</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44406.73902777778</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20629,10 +20087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:42:17</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44406.73769675926</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20700,10 +20156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:41:36</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44406.73722222223</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20771,10 +20225,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:41:11</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44406.73693287037</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20838,10 +20290,8 @@
           <t>5020509897</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:40:16</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44406.73629629629</v>
       </c>
       <c r="I284" t="n">
         <v>2</v>
@@ -20913,10 +20363,8 @@
           <t>5020511069</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:39:34</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44406.73581018519</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -20984,10 +20432,8 @@
           <t>5019163692</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:38:01</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44406.73473379629</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21059,10 +20505,8 @@
           <t>5019976424</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:37:26</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44406.7343287037</v>
       </c>
       <c r="I287" t="n">
         <v>13</v>
@@ -21130,10 +20574,8 @@
           <t>5020436167</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:29:58</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44406.72914351852</v>
       </c>
       <c r="I288" t="n">
         <v>5</v>
@@ -21197,10 +20639,8 @@
           <t>5019556905</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:29:13</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44406.72862268519</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21264,10 +20704,8 @@
           <t>5020427289</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:29:01</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44406.72848379629</v>
       </c>
       <c r="I290" t="n">
         <v>12</v>
@@ -21331,10 +20769,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:28:05</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44406.72783564815</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21402,10 +20838,8 @@
           <t>5020420562</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:27:43</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44406.72758101852</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21477,10 +20911,8 @@
           <t>5020416506</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:27:35</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44406.72748842592</v>
       </c>
       <c r="I293" t="n">
         <v>10</v>
@@ -21544,10 +20976,8 @@
           <t>5020412871</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:27:07</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44406.72716435185</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21625,10 +21055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:25:40</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44406.72615740741</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21704,10 +21132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:25:05</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44406.72575231481</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21771,10 +21197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:20:27</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44406.72253472222</v>
       </c>
       <c r="I297" t="n">
         <v>214</v>
@@ -21843,10 +21267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:20:12</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44406.72236111111</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21914,10 +21336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:19:24</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44406.72180555556</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -21985,10 +21405,8 @@
           <t>5020323837</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:14:57</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44406.71871527778</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22056,10 +21474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:11:41</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44406.71644675926</v>
       </c>
       <c r="I301" t="n">
         <v>5</v>
@@ -22127,10 +21543,8 @@
           <t>5020290711</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:09:55</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44406.7152199074</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22198,10 +21612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:08:04</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44406.71393518519</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22277,10 +21689,8 @@
           <t>5020254362</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:06:13</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44406.71265046296</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22360,10 +21770,8 @@
           <t>5020245824</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:04:22</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44406.71136574074</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22439,10 +21847,8 @@
           <t>5020229789</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:02:56</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44406.71037037037</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22506,10 +21912,8 @@
           <t>5020227034</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:02:48</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44406.71027777778</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22573,10 +21977,8 @@
           <t>5020235253</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:02:38</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44406.71016203704</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22644,10 +22046,8 @@
           <t>5020227034</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:02:18</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44406.70993055555</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22711,10 +22111,8 @@
           <t>5020227034</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:01:58</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44406.70969907408</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22778,10 +22176,8 @@
           <t>5020212360</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:00:14</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44406.70849537037</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -22845,10 +22241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:00:05</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44406.70839120371</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -22916,10 +22310,8 @@
           <t>5020189519</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:58:07</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44406.70702546297</v>
       </c>
       <c r="I313" t="n">
         <v>23</v>
@@ -22987,10 +22379,8 @@
           <t>5020176480</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:55:09</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44406.70496527778</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23054,10 +22444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:52:41</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44406.70325231482</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23133,10 +22521,8 @@
           <t>5020139281</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:50:04</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44406.70143518518</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23200,10 +22586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:48:47</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44406.70054398148</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23271,10 +22655,8 @@
           <t>5020124023</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:47:57</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44406.69996527778</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23338,10 +22720,8 @@
           <t>5019902592</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:45:29</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44406.69825231482</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23417,10 +22797,8 @@
           <t>5020103850</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:45:28</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44406.69824074074</v>
       </c>
       <c r="I320" t="n">
         <v>19</v>
@@ -23490,10 +22868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:45:27</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44406.69822916666</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23557,10 +22933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:44:03</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44406.69725694445</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -23634,10 +23008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:43:20</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44406.69675925926</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23701,10 +23073,8 @@
           <t>5019236371</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:43:17</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44406.69672453704</v>
       </c>
       <c r="I324" t="n">
         <v>3</v>
@@ -23772,10 +23142,8 @@
           <t>5020083070</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:42:44</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44406.69634259259</v>
       </c>
       <c r="I325" t="n">
         <v>15</v>
@@ -23839,10 +23207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:42:08</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44406.69592592592</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -23910,10 +23276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:41:51</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44406.69572916667</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -23981,10 +23345,8 @@
           <t>5020083070</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:41:17</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44406.69533564815</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24053,10 +23415,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:38:52</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44406.69365740741</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24128,10 +23488,8 @@
           <t>5019292368</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:38:39</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44406.69350694444</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24199,10 +23557,8 @@
           <t>5020065617</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:38:11</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44406.69318287037</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24278,10 +23634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:36:16</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44406.69185185185</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24349,10 +23703,8 @@
           <t>5020045484</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:35:37</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44406.69140046297</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24424,10 +23776,8 @@
           <t>5020045167</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:35:29</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44406.69130787037</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24495,10 +23845,8 @@
           <t>5020034681</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:35:15</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44406.69114583333</v>
       </c>
       <c r="I335" t="n">
         <v>25</v>
@@ -24562,10 +23910,8 @@
           <t>5019637091</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:34:40</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44406.69074074074</v>
       </c>
       <c r="I336" t="n">
         <v>20</v>
@@ -24633,10 +23979,8 @@
           <t>5020035810</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:34:06</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44406.69034722223</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -24712,10 +24056,8 @@
           <t>5020001408</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:29:03</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44406.68684027778</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24787,10 +24129,8 @@
           <t>5019995420</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:28:25</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44406.68640046296</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24866,10 +24206,8 @@
           <t>5019984654</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:28:04</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44406.68615740741</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -24933,10 +24271,8 @@
           <t>5019984554</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:28:01</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44406.68612268518</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25008,10 +24344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:27:37</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44406.68584490741</v>
       </c>
       <c r="I342" t="n">
         <v>509</v>
@@ -25087,10 +24421,8 @@
           <t>5019311149</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:27:04</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44406.68546296296</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25166,10 +24498,8 @@
           <t>5019980764</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:26:18</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44406.68493055556</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25236,10 +24566,8 @@
           <t>5019976424</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:25:49</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44406.6845949074</v>
       </c>
       <c r="I345" t="n">
         <v>35</v>
@@ -25303,10 +24631,8 @@
           <t>5019976285</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:25:45</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44406.68454861111</v>
       </c>
       <c r="I346" t="n">
         <v>11</v>
@@ -25370,10 +24696,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:24:48</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44406.68388888889</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25441,10 +24765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:23:33</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44406.68302083333</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25516,10 +24838,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:23:03</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44406.68267361111</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25587,10 +24907,8 @@
           <t>5019946612</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:21:32</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44406.68162037037</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25667,10 +24985,8 @@
           <t>5019946532</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:21:30</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44406.68159722222</v>
       </c>
       <c r="I351" t="n">
         <v>5</v>
@@ -25734,10 +25050,8 @@
           <t>5019937391</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:20:06</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44406.680625</v>
       </c>
       <c r="I352" t="n">
         <v>4</v>
@@ -25801,10 +25115,8 @@
           <t>5019941794</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:19:57</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44406.68052083333</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -25880,10 +25192,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:19:26</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44406.68016203704</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -25959,10 +25269,8 @@
           <t>5019922711</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:17:48</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44406.67902777778</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26032,10 +25340,8 @@
           <t>5019327529</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:17:06</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44406.67854166667</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26103,10 +25409,8 @@
           <t>5019665134</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:17:05</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44406.67853009259</v>
       </c>
       <c r="I357" t="n">
         <v>5</v>
@@ -26174,10 +25478,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:16:22</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44406.67803240741</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26245,10 +25547,8 @@
           <t>5019311149</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:16:09</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44406.67788194444</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26316,10 +25616,8 @@
           <t>5019416617</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:15:43</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44406.67758101852</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26383,10 +25681,8 @@
           <t>5019665134</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:15:30</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44406.67743055556</v>
       </c>
       <c r="I361" t="n">
         <v>3</v>
@@ -26450,10 +25746,8 @@
           <t>5019902592</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:15:18</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44406.67729166667</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26517,10 +25811,8 @@
           <t>5019905139</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:14:09</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44406.67649305556</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26596,10 +25888,8 @@
           <t>5019886839</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:12:27</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44406.6753125</v>
       </c>
       <c r="I364" t="n">
         <v>3</v>
@@ -26667,10 +25957,8 @@
           <t>5019879918</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:11:48</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44406.67486111111</v>
       </c>
       <c r="I365" t="n">
         <v>12</v>
@@ -26738,10 +26026,8 @@
           <t>5019327529</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:11:27</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44406.67461805556</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26810,10 +26096,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:11:26</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44406.67460648148</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -26889,10 +26173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:11:11</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44406.67443287037</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -26960,10 +26242,8 @@
           <t>5019877600</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:10:46</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44406.67414351852</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27035,10 +26315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:08:20</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44406.6724537037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27106,10 +26384,8 @@
           <t>5019416617</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:08:05</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44406.67228009259</v>
       </c>
       <c r="I371" t="n">
         <v>3</v>
@@ -27177,10 +26453,8 @@
           <t>5019229631</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:07:32</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44406.67189814815</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27244,10 +26518,8 @@
           <t>5019177410</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:05:58</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44406.67081018518</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27319,10 +26591,8 @@
           <t>5019836864</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:03:34</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44406.66914351852</v>
       </c>
       <c r="I374" t="n">
         <v>13</v>
@@ -27394,10 +26664,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:03:07</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44406.66883101852</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27465,10 +26733,8 @@
           <t>5019316419</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:02:49</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44406.66862268518</v>
       </c>
       <c r="I376" t="n">
         <v>7</v>
@@ -27528,10 +26794,8 @@
           <t>5019327529</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:01:58</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44406.6680324074</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27599,10 +26863,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:00:01</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44406.66667824074</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -27670,10 +26932,8 @@
           <t>5019416617</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:59:30</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44406.66631944444</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -27741,10 +27001,8 @@
           <t>5019810407</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:59:18</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44406.66618055556</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27821,10 +27079,8 @@
           <t>5019797907</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:58:03</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44406.6653125</v>
       </c>
       <c r="I381" t="n">
         <v>4</v>
@@ -27900,10 +27156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:57:12</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44406.66472222222</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -27967,10 +27221,8 @@
           <t>5019784417</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:56:17</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44406.66408564815</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28038,10 +27290,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:55:21</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44406.6634375</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28101,10 +27351,8 @@
           <t>5019170878</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:55:05</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44406.66325231481</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28168,10 +27416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:55:03</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44406.66322916667</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28239,10 +27485,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:54:56</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44406.66314814815</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28318,10 +27562,8 @@
           <t>5019774315</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:54:53</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44406.66311342592</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28389,10 +27631,8 @@
           <t>5019698743</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:54:41</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44406.66297453704</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28456,10 +27696,8 @@
           <t>5019772769</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:54:09</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44406.66260416667</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28535,10 +27773,8 @@
           <t>5019772546</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:54:03</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44406.66253472222</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28614,10 +27850,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:53:47</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44406.66234953704</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28689,10 +27923,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:50:34</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44406.66011574074</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28752,10 +27984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:50:28</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44406.6600462963</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -28819,10 +28049,8 @@
           <t>5019744878</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:50:19</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44406.65994212963</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -28898,10 +28126,8 @@
           <t>5019744860</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:50:18</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44406.65993055556</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -28977,10 +28203,8 @@
           <t>5019745022</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:48:45</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44406.65885416666</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29056,10 +28280,8 @@
           <t>5019729764</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:47:46</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44406.65817129629</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29127,10 +28349,8 @@
           <t>5019415933</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:46:40</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44406.65740740741</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29198,10 +28418,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:45:31</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44406.65660879629</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29269,10 +28487,8 @@
           <t>5019721825</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:44:55</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44406.65619212963</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29350,10 +28566,8 @@
           <t>5019713335</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:44:40</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44406.65601851852</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29421,10 +28635,8 @@
           <t>5019712363</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:44:13</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44406.65570601852</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29492,10 +28704,8 @@
           <t>5019361472</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:43:56</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44406.65550925926</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29563,10 +28773,8 @@
           <t>5019704407</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:43:43</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44406.6553587963</v>
       </c>
       <c r="I405" t="n">
         <v>2</v>
@@ -29634,10 +28842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:43:35</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44406.65526620371</v>
       </c>
       <c r="I406" t="n">
         <v>4</v>
@@ -29705,10 +28911,8 @@
           <t>5019698743</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:42:26</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44406.65446759259</v>
       </c>
       <c r="I407" t="n">
         <v>4</v>
@@ -29784,10 +28988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:42:19</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44406.65438657408</v>
       </c>
       <c r="I408" t="n">
         <v>10</v>
@@ -29863,10 +29065,8 @@
           <t>5019698346</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:42:15</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44406.65434027778</v>
       </c>
       <c r="I409" t="n">
         <v>9</v>
@@ -29938,10 +29138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:41:58</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44406.65414351852</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30005,10 +29203,8 @@
           <t>5019177410</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:41:57</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44406.65413194444</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30080,10 +29276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:41:54</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44406.65409722222</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30151,10 +29345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:41:09</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44406.65357638889</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30230,10 +29422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:40:45</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44406.65329861111</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30305,10 +29495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:39:58</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44406.65275462963</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30384,10 +29572,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:39:40</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44406.6525462963</v>
       </c>
       <c r="I416" t="n">
         <v>2</v>
@@ -30451,10 +29637,8 @@
           <t>5019316419</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:38:17</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44406.65158564815</v>
       </c>
       <c r="I417" t="n">
         <v>6</v>
@@ -30522,10 +29706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:38:06</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44406.65145833333</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30589,10 +29771,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:37:49</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44406.65126157407</v>
       </c>
       <c r="I419" t="n">
         <v>24</v>
@@ -30660,10 +29840,8 @@
           <t>5019675386</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:37:18</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44406.65090277778</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30727,10 +29905,8 @@
           <t>5019665134</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:35:51</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44406.64989583333</v>
       </c>
       <c r="I421" t="n">
         <v>28</v>
@@ -30794,10 +29970,8 @@
           <t>5019316419</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:35:36</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44406.64972222222</v>
       </c>
       <c r="I422" t="n">
         <v>5</v>
@@ -30873,10 +30047,8 @@
           <t>5019658122</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:35:32</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44406.64967592592</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -30952,10 +30124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:34:01</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44406.64862268518</v>
       </c>
       <c r="I424" t="n">
         <v>4</v>
@@ -31019,10 +30189,8 @@
           <t>5019644649</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:33:51</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44406.64850694445</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31098,10 +30266,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:33:40</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44406.64837962963</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31173,10 +30339,8 @@
           <t>5019639532</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:33:10</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44406.64803240741</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31252,10 +30416,8 @@
           <t>5019639145</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:33:00</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44406.64791666667</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31315,10 +30477,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:32:59</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44406.64790509259</v>
       </c>
       <c r="I429" t="n">
         <v>4</v>
@@ -31386,10 +30546,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:32:47</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44406.64776620371</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31465,10 +30623,8 @@
           <t>5019634578</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:32:26</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44406.64752314815</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -31540,10 +30696,8 @@
           <t>5019637127</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:32:04</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44406.64726851852</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31611,10 +30765,8 @@
           <t>5019637091</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:32:03</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44406.64725694444</v>
       </c>
       <c r="I433" t="n">
         <v>101</v>
@@ -31674,10 +30826,8 @@
           <t>5019640785</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:31:57</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44406.6471875</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31749,10 +30899,8 @@
           <t>5019633154</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:31:49</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44406.64709490741</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31816,10 +30964,8 @@
           <t>5019630490</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:30:37</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44406.64626157407</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -31887,10 +31033,8 @@
           <t>5019619765</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:30:18</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44406.64604166667</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -31954,10 +31098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:29:32</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44406.64550925926</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32021,10 +31163,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:29:24</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44406.64541666667</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32096,10 +31236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:28:28</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44406.64476851852</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32171,10 +31309,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:28:26</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44406.64474537037</v>
       </c>
       <c r="I441" t="n">
         <v>2</v>
@@ -32246,10 +31382,8 @@
           <t>5019604836</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:28:08</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44406.64453703703</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32321,10 +31455,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:28:00</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44406.64444444444</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32396,10 +31528,8 @@
           <t>5019607607</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:27:37</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44406.64417824074</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32463,10 +31593,8 @@
           <t>5019611723</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:27:34</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44406.64414351852</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32530,10 +31658,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:27:24</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44406.64402777778</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -32613,10 +31739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:27:16</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44406.64393518519</v>
       </c>
       <c r="I447" t="n">
         <v>1724</v>
@@ -32684,10 +31808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:27:01</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44406.64376157407</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -32759,10 +31881,8 @@
           <t>5019606259</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:26:58</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44406.64372685185</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32830,10 +31950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:26:17</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44406.64325231482</v>
       </c>
       <c r="I450" t="n">
         <v>11</v>
@@ -32897,10 +32015,8 @@
           <t>5019593818</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:25:43</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44406.64285879629</v>
       </c>
       <c r="I451" t="n">
         <v>3</v>
@@ -32972,10 +32088,8 @@
           <t>5019597205</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:25:17</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44406.64255787037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33051,10 +32165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:24:39</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44406.64211805556</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33118,10 +32230,8 @@
           <t>5019571746</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:23:39</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44406.64142361111</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33185,10 +32295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:23:18</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44406.64118055555</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33252,10 +32360,8 @@
           <t>5019583345</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:23:18</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44406.64118055555</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33323,10 +32429,8 @@
           <t>5019573291</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:22:40</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44406.64074074074</v>
       </c>
       <c r="I457" t="n">
         <v>4</v>
@@ -33398,10 +32502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:22:16</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44406.64046296296</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33465,10 +32567,8 @@
           <t>5019571746</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:21:56</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44406.64023148148</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33540,10 +32640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:21:28</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44406.63990740741</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33611,10 +32709,8 @@
           <t>5019229631</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:21:12</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44406.63972222222</v>
       </c>
       <c r="I461" t="n">
         <v>4</v>
@@ -33686,10 +32782,8 @@
           <t>5019313501</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:21:11</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44406.63971064815</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33753,10 +32847,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:20:51</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44406.63947916667</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -33824,10 +32916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:20:44</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44406.63939814815</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -33895,10 +32985,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:19:50</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44406.63877314814</v>
       </c>
       <c r="I465" t="n">
         <v>51</v>
@@ -33962,10 +33050,8 @@
           <t>5019556905</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:19:43</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44406.63869212963</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34033,10 +33119,8 @@
           <t>5019560886</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:19:21</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44406.6384375</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34104,10 +33188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:18:38</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44406.63793981481</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34175,10 +33257,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:18:38</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44406.63793981481</v>
       </c>
       <c r="I469" t="n">
         <v>3</v>
@@ -34242,10 +33322,8 @@
           <t>5019316419</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:17:40</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44406.63726851852</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34317,10 +33395,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:17:38</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44406.63724537037</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34388,10 +33464,8 @@
           <t>5019236371</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:17:02</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44406.6368287037</v>
       </c>
       <c r="I472" t="n">
         <v>24</v>
@@ -34451,10 +33525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:16:58</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44406.6367824074</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34530,10 +33602,8 @@
           <t>5019551021</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:16:57</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44406.63677083333</v>
       </c>
       <c r="I474" t="n">
         <v>3</v>
@@ -34597,10 +33667,8 @@
           <t>5019540681</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:16:46</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44406.63664351852</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34676,10 +33744,8 @@
           <t>5019454907</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:16:41</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44406.63658564815</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -34743,10 +33809,8 @@
           <t>5019527349</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:15:06</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44406.63548611111</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -34814,10 +33878,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:14:56</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44406.63537037037</v>
       </c>
       <c r="I478" t="n">
         <v>165</v>
@@ -34881,10 +33943,8 @@
           <t>5019535489</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:14:27</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44406.63503472223</v>
       </c>
       <c r="I479" t="n">
         <v>2</v>
@@ -34961,10 +34021,8 @@
           <t>5019519674</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:13:56</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44406.63467592592</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35032,10 +34090,8 @@
           <t>5019523576</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:13:32</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44406.63439814815</v>
       </c>
       <c r="I481" t="n">
         <v>2</v>
@@ -35107,10 +34163,8 @@
           <t>5019521381</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:12:30</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44406.63368055555</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35179,10 +34233,8 @@
           <t>5019515574</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:11:55</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44406.63327546296</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35246,10 +34298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:11:07</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44406.63271990741</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
@@ -35326,10 +34376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:10:54</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44406.63256944445</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -35397,10 +34445,8 @@
           <t>5019415933</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:10:51</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44406.63253472222</v>
       </c>
       <c r="I486" t="n">
         <v>6</v>
@@ -35464,10 +34510,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:10:42</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44406.63243055555</v>
       </c>
       <c r="I487" t="n">
         <v>2</v>
@@ -35539,10 +34583,8 @@
           <t>5019305092</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:10:26</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44406.63224537037</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35606,10 +34648,8 @@
           <t>5019236371</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:10:05</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44406.63200231481</v>
       </c>
       <c r="I489" t="n">
         <v>22</v>
@@ -35685,10 +34725,8 @@
           <t>5019489949</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:09:07</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44406.63133101852</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -35760,10 +34798,8 @@
           <t>5019489007</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:08:40</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44406.63101851852</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -35831,10 +34867,8 @@
           <t>5019492281</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:08:13</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44406.63070601852</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -35902,10 +34936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:08:05</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44406.63061342593</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -35969,10 +35001,8 @@
           <t>5019454907</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:07:11</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44406.62998842593</v>
       </c>
       <c r="I494" t="n">
         <v>4</v>
@@ -36048,10 +35078,8 @@
           <t>5019399972</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:07:04</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44406.6299074074</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36127,10 +35155,8 @@
           <t>5019454907</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:05:58</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44406.62914351852</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36206,10 +35232,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:05:48</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44406.62902777778</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36277,10 +35301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:05:44</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44406.62898148148</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36356,10 +35378,8 @@
           <t>5019476221</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:05:21</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44406.62871527778</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36428,10 +35448,8 @@
           <t>5019467751</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:05:04</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44406.62851851852</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -36499,10 +35517,8 @@
           <t>5019466346</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:04:21</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44406.62802083333</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -36580,10 +35596,8 @@
           <t>5019459098</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:03:46</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44406.62761574074</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36655,10 +35669,8 @@
           <t>5019454907</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:03:36</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44406.6275</v>
       </c>
       <c r="I503" t="n">
         <v>11</v>
@@ -36722,10 +35734,8 @@
           <t>5019457531</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:02:59</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44406.62707175926</v>
       </c>
       <c r="I504" t="n">
         <v>6</v>
@@ -36789,10 +35799,8 @@
           <t>5019460671</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:02:43</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44406.62688657407</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -36864,10 +35872,8 @@
           <t>5019449622</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:02:14</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44406.62655092592</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -36931,10 +35937,8 @@
           <t>5019455891</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:02:11</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44406.6265162037</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -36998,10 +36002,8 @@
           <t>5019175796</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:01:53</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44406.62630787037</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37077,10 +36079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:01:46</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44406.62622685185</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37152,10 +36152,8 @@
           <t>5019444361</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:01:26</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44406.62599537037</v>
       </c>
       <c r="I510" t="n">
         <v>5</v>
@@ -37231,10 +36229,8 @@
           <t>5019439425</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:00:49</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44406.62556712963</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37310,10 +36306,8 @@
           <t>5019439396</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:00:48</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44406.62555555555</v>
       </c>
       <c r="I512" t="n">
         <v>3</v>
@@ -37381,10 +36375,8 @@
           <t>5019446436</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:00:43</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44406.62549768519</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37460,10 +36452,8 @@
           <t>5019157367</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:00:32</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44406.62537037037</v>
       </c>
       <c r="I514" t="n">
         <v>6</v>
@@ -37531,10 +36521,8 @@
           <t>5019397687</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:00:27</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44406.6253125</v>
       </c>
       <c r="I515" t="n">
         <v>4</v>
@@ -37594,10 +36582,8 @@
           <t>5019305092</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:59:43</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44406.62480324074</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37661,10 +36647,8 @@
           <t>5019157367</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:58:17</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44406.62380787037</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -37724,10 +36708,8 @@
           <t>5019368221</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:57:53</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44406.62353009259</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -37791,10 +36773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:57:33</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44406.62329861111</v>
       </c>
       <c r="I519" t="n">
         <v>3</v>
@@ -37870,10 +36850,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:56:59</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44406.62290509259</v>
       </c>
       <c r="I520" t="n">
         <v>5</v>
@@ -37949,10 +36927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:56:38</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44406.62266203704</v>
       </c>
       <c r="I521" t="n">
         <v>5</v>
@@ -38016,10 +36992,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:56:25</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44406.62251157407</v>
       </c>
       <c r="I522" t="n">
         <v>9</v>
@@ -38083,10 +37057,8 @@
           <t>5019413645</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:56:09</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44406.62232638889</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38150,10 +37122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:55:43</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44406.62202546297</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38225,10 +37195,8 @@
           <t>5019404689</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:55:16</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44406.62171296297</v>
       </c>
       <c r="I525" t="n">
         <v>2</v>
@@ -38300,10 +37268,8 @@
           <t>5019408336</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:55:09</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44406.62163194444</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38375,10 +37341,8 @@
           <t>5019175796</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:55:04</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44406.62157407407</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38450,10 +37414,8 @@
           <t>5019410025</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:54:20</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44406.62106481481</v>
       </c>
       <c r="I528" t="n">
         <v>90</v>
@@ -38534,10 +37496,8 @@
           <t>5019399972</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:54:18</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44406.62104166667</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38605,10 +37565,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:53:54</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44406.62076388889</v>
       </c>
       <c r="I530" t="n">
         <v>5</v>
@@ -38684,10 +37642,8 @@
           <t>5019400819</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:53:27</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44406.62045138889</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -38759,10 +37715,8 @@
           <t>5019397687</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:53:10</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44406.62025462963</v>
       </c>
       <c r="I532" t="n">
         <v>10</v>
@@ -38826,10 +37780,8 @@
           <t>5019389980</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:53:03</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44406.62017361111</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -38905,10 +37857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:52:59</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44406.62012731482</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -38968,10 +37918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:52:24</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44406.61972222223</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39043,10 +37991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:52:24</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44406.61972222223</v>
       </c>
       <c r="I536" t="n">
         <v>23</v>
@@ -39118,10 +38064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:51:59</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44406.61943287037</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39197,10 +38141,8 @@
           <t>5019361472</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:51:33</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44406.61913194445</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -39276,10 +38218,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:51:32</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44406.61912037037</v>
       </c>
       <c r="I539" t="n">
         <v>9</v>
@@ -39351,10 +38291,8 @@
           <t>5019368221</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:51:10</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44406.61886574074</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39414,10 +38352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:51:06</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44406.61881944445</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39489,10 +38425,8 @@
           <t>5019379362</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:50:27</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44406.61836805556</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39560,10 +38494,8 @@
           <t>5019373510</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:50:09</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44406.61815972222</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -39631,10 +38563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:49:58</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44406.61803240741</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39702,10 +38632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:49:46</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44406.61789351852</v>
       </c>
       <c r="I545" t="n">
         <v>16</v>
@@ -39777,10 +38705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:49:43</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44406.61785879629</v>
       </c>
       <c r="I546" t="n">
         <v>16</v>
@@ -39844,10 +38770,8 @@
           <t>5019369628</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:49:13</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44406.61751157408</v>
       </c>
       <c r="I547" t="n">
         <v>34</v>
@@ -39923,10 +38847,8 @@
           <t>5019371449</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:49:06</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44406.61743055555</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -39994,10 +38916,8 @@
           <t>5019369257</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:49:02</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44406.61738425926</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40075,10 +38995,8 @@
           <t>5019370404</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:48:34</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44406.61706018518</v>
       </c>
       <c r="I550" t="n">
         <v>5</v>
@@ -40142,10 +39060,8 @@
           <t>5019368221</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:48:31</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44406.61702546296</v>
       </c>
       <c r="I551" t="n">
         <v>1</v>
@@ -40217,10 +39133,8 @@
           <t>5019229631</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:48:28</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44406.61699074074</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40292,10 +39206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:48:25</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44406.61695601852</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40363,10 +39275,8 @@
           <t>5019367452</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:48:08</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44406.61675925926</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40442,10 +39352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:47:23</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44406.61623842592</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40513,10 +39421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:47:00</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44406.61597222222</v>
       </c>
       <c r="I556" t="n">
         <v>6</v>
@@ -40584,10 +39490,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:50</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44406.61585648148</v>
       </c>
       <c r="I557" t="n">
         <v>10</v>
@@ -40655,10 +39559,8 @@
           <t>5019157367</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:48</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44406.61583333334</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40730,10 +39632,8 @@
           <t>5019356852</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:47</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44406.61582175926</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -40793,10 +39693,8 @@
           <t>5019361472</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:46</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44406.61581018518</v>
       </c>
       <c r="I560" t="n">
         <v>3</v>
@@ -40868,10 +39766,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:42</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44406.61576388889</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -40943,10 +39839,8 @@
           <t>5019356180</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:26</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44406.61557870371</v>
       </c>
       <c r="I562" t="n">
         <v>38</v>
@@ -41010,10 +39904,8 @@
           <t>5019360281</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:12</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44406.61541666667</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41081,10 +39973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:10</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44406.61539351852</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41153,10 +40043,8 @@
           <t>5019346618</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:46:04</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44406.61532407408</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41220,10 +40108,8 @@
           <t>5019344976</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:45:49</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44406.61515046296</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41295,10 +40181,8 @@
           <t>5019349298</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:45:45</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44406.61510416667</v>
       </c>
       <c r="I567" t="n">
         <v>4</v>
@@ -41366,10 +40250,8 @@
           <t>5019311149</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:45:40</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44406.6150462963</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41429,10 +40311,8 @@
           <t>5019347674</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:45:00</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44406.61458333334</v>
       </c>
       <c r="I569" t="n">
         <v>2</v>
@@ -41504,10 +40384,8 @@
           <t>5019346623</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:44:32</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44406.61425925926</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -41579,10 +40457,8 @@
           <t>5019346618</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:44:32</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44406.61425925926</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -41653,10 +40529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:44:18</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44406.61409722222</v>
       </c>
       <c r="I572" t="n">
         <v>8</v>
@@ -41724,10 +40598,8 @@
           <t>5019339342</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:44:11</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44406.6140162037</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -41799,10 +40671,8 @@
           <t>5019334492</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:43:36</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44406.61361111111</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -41878,10 +40748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:43:01</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44406.61320601852</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -41957,10 +40825,8 @@
           <t>5019328763</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:42:47</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44406.61304398148</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42030,10 +40896,8 @@
           <t>5019332208</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:42:32</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44406.61287037037</v>
       </c>
       <c r="I577" t="n">
         <v>2</v>
@@ -42101,10 +40965,8 @@
           <t>5019327801</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:42:19</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44406.61271990741</v>
       </c>
       <c r="I578" t="n">
         <v>1</v>
@@ -42175,10 +41037,8 @@
           <t>5019327529</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:42:11</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44406.61262731482</v>
       </c>
       <c r="I579" t="n">
         <v>31</v>
@@ -42254,10 +41114,8 @@
           <t>5019324860</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:42:03</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44406.61253472222</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42321,10 +41179,8 @@
           <t>5019324739</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:42:00</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44406.6125</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42388,10 +41244,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:41:59</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44406.61248842593</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42455,10 +41309,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:41:39</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44406.61225694444</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42530,10 +41382,8 @@
           <t>5019326216</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:41:32</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44406.61217592593</v>
       </c>
       <c r="I584" t="n">
         <v>3</v>
@@ -42609,10 +41459,8 @@
           <t>5019323754</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:41:31</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44406.61216435185</v>
       </c>
       <c r="I585" t="n">
         <v>4</v>
@@ -42681,10 +41529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:41:27</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44406.61211805556</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -42761,10 +41607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:41:13</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44406.61195601852</v>
       </c>
       <c r="I587" t="n">
         <v>2</v>
@@ -42832,10 +41676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:40:58</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44406.61178240741</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -42911,10 +41753,8 @@
           <t>5019322605</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:40:55</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44406.61174768519</v>
       </c>
       <c r="I589" t="n">
         <v>14</v>
@@ -42990,10 +41830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:40:50</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44406.61168981482</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43065,10 +41903,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:40:14</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44406.61127314815</v>
       </c>
       <c r="I591" t="n">
         <v>3</v>
@@ -43140,10 +41976,8 @@
           <t>5019313501</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:40:08</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44406.6112037037</v>
       </c>
       <c r="I592" t="n">
         <v>17</v>
@@ -43215,10 +42049,8 @@
           <t>5019316419</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:39:51</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44406.61100694445</v>
       </c>
       <c r="I593" t="n">
         <v>25</v>
@@ -43282,10 +42114,8 @@
           <t>5019197794</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:39:40</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44406.61087962963</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43361,10 +42191,8 @@
           <t>5019291859</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:39:34</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44406.61081018519</v>
       </c>
       <c r="I595" t="n">
         <v>58</v>
@@ -43440,10 +42268,8 @@
           <t>5019309642</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:39:29</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44406.61075231482</v>
       </c>
       <c r="I596" t="n">
         <v>50</v>
@@ -43519,10 +42345,8 @@
           <t>5019311861</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:39:19</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44406.61063657407</v>
       </c>
       <c r="I597" t="n">
         <v>78</v>
@@ -43594,10 +42418,8 @@
           <t>5019311149</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:38:57</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44406.61038194445</v>
       </c>
       <c r="I598" t="n">
         <v>161</v>
@@ -43669,10 +42491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:38:54</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44406.61034722222</v>
       </c>
       <c r="I599" t="n">
         <v>855</v>
@@ -43736,10 +42556,8 @@
           <t>5019311015</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:38:53</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44406.61033564815</v>
       </c>
       <c r="I600" t="n">
         <v>3</v>
@@ -43807,10 +42625,8 @@
           <t>5019157367</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:38:36</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44406.61013888889</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -43878,10 +42694,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:38:34</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44406.61011574074</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -43954,10 +42768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:38:13</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44406.60987268519</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44025,10 +42837,8 @@
           <t>5019289219</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:37:36</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44406.60944444445</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44092,10 +42902,8 @@
           <t>5019305608</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:37:34</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44406.6094212963</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44155,10 +42963,8 @@
           <t>5019305092</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:37:20</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44406.60925925926</v>
       </c>
       <c r="I606" t="n">
         <v>3</v>
@@ -44222,10 +43028,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:37:04</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44406.60907407408</v>
       </c>
       <c r="I607" t="n">
         <v>3</v>
@@ -44297,10 +43101,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:36:59</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44406.60901620371</v>
       </c>
       <c r="I608" t="n">
         <v>4</v>
@@ -44372,10 +43174,8 @@
           <t>5019294357</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:36:58</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44406.60900462963</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44443,10 +43243,8 @@
           <t>5019220827</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:36:48</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44406.60888888889</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44522,10 +43320,8 @@
           <t>5019289219</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:36:34</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44406.60872685185</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44597,10 +43393,8 @@
           <t>5019296314</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:36:33</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44406.60871527778</v>
       </c>
       <c r="I612" t="n">
         <v>15</v>
@@ -44668,10 +43462,8 @@
           <t>5019292368</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:36:01</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44406.60834490741</v>
       </c>
       <c r="I613" t="n">
         <v>2</v>
@@ -44735,10 +43527,8 @@
           <t>5019287781</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:55</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44406.60827546296</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44806,10 +43596,8 @@
           <t>5019197794</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:52</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44406.60824074074</v>
       </c>
       <c r="I615" t="n">
         <v>7</v>
@@ -44877,10 +43665,8 @@
           <t>5019291859</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:46</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44406.6081712963</v>
       </c>
       <c r="I616" t="n">
         <v>68</v>
@@ -44951,10 +43737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:40</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44406.60810185185</v>
       </c>
       <c r="I617" t="n">
         <v>1</v>
@@ -45030,10 +43814,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:34</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44406.60803240741</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45097,10 +43879,8 @@
           <t>5019291002</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:20</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44406.60787037037</v>
       </c>
       <c r="I619" t="n">
         <v>60</v>
@@ -45172,10 +43952,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:14</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44406.60780092593</v>
       </c>
       <c r="I620" t="n">
         <v>21</v>
@@ -45243,10 +44021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:13</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44406.60778935185</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45314,10 +44090,8 @@
           <t>5019283404</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:06</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44406.60770833334</v>
       </c>
       <c r="I622" t="n">
         <v>8</v>
@@ -45381,10 +44155,8 @@
           <t>5019283292</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:02</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44406.60766203704</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -45452,10 +44224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:34:54</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44406.60756944444</v>
       </c>
       <c r="I624" t="n">
         <v>2</v>
@@ -45519,10 +44289,8 @@
           <t>5019282417</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:34:35</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44406.60734953704</v>
       </c>
       <c r="I625" t="n">
         <v>1</v>
@@ -45582,10 +44350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:34:26</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44406.60724537037</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -45655,10 +44421,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:34:08</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44406.60703703704</v>
       </c>
       <c r="I627" t="n">
         <v>4</v>
@@ -45722,10 +44486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:34:06</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44406.60701388889</v>
       </c>
       <c r="I628" t="n">
         <v>1</v>
@@ -45797,10 +44559,8 @@
           <t>5019273106</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:33:56</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44406.60689814815</v>
       </c>
       <c r="I629" t="n">
         <v>7</v>
@@ -45872,10 +44632,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:33:54</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44406.606875</v>
       </c>
       <c r="I630" t="n">
         <v>2</v>
@@ -45951,10 +44709,8 @@
           <t>5019277322</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:33:29</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44406.60658564815</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46022,10 +44778,8 @@
           <t>5019236371</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:33:23</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44406.6065162037</v>
       </c>
       <c r="I632" t="n">
         <v>48</v>
@@ -46085,10 +44839,8 @@
           <t>5019269810</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:33:17</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44406.60644675926</v>
       </c>
       <c r="I633" t="n">
         <v>2</v>
@@ -46164,10 +44916,8 @@
           <t>5019197794</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:33:13</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44406.60640046297</v>
       </c>
       <c r="I634" t="n">
         <v>5</v>
@@ -46231,10 +44981,8 @@
           <t>5019268493</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:32:37</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44406.6059837963</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46310,10 +45058,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:32:36</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44406.60597222222</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46381,10 +45127,8 @@
           <t>5019270161</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:32:29</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44406.6058912037</v>
       </c>
       <c r="I637" t="n">
         <v>1</v>
@@ -46452,10 +45196,8 @@
           <t>5019264498</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:32:14</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44406.6057175926</v>
       </c>
       <c r="I638" t="n">
         <v>13</v>
@@ -46519,10 +45261,8 @@
           <t>5019267674</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:32:13</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44406.60570601852</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46603,10 +45343,8 @@
           <t>5019267122</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:31:56</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44406.60550925926</v>
       </c>
       <c r="I640" t="n">
         <v>72</v>
@@ -46674,10 +45412,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:31:53</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44406.60547453703</v>
       </c>
       <c r="I641" t="n">
         <v>7</v>
@@ -46745,10 +45481,8 @@
           <t>5019258803</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:31:50</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44406.60543981481</v>
       </c>
       <c r="I642" t="n">
         <v>2</v>
@@ -46816,10 +45550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:31:40</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44406.60532407407</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -46887,10 +45619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:31:40</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44406.60532407407</v>
       </c>
       <c r="I644" t="n">
         <v>2</v>
@@ -46960,10 +45690,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:31:09</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44406.60496527778</v>
       </c>
       <c r="I645" t="n">
         <v>16</v>
@@ -47027,10 +45755,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:31:07</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44406.60494212963</v>
       </c>
       <c r="I646" t="n">
         <v>6</v>
@@ -47106,10 +45832,8 @@
           <t>5019257118</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:31:01</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44406.60487268519</v>
       </c>
       <c r="I647" t="n">
         <v>4</v>
@@ -47173,10 +45897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:55</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44406.60480324074</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47252,10 +45974,8 @@
           <t>5019261311</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:45</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44406.6046875</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47323,10 +46043,8 @@
           <t>5019261060</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:39</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44406.60461805556</v>
       </c>
       <c r="I650" t="n">
         <v>1</v>
@@ -47394,10 +46112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:33</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44406.60454861111</v>
       </c>
       <c r="I651" t="n">
         <v>12</v>
@@ -47457,10 +46173,8 @@
           <t>5019226679</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:22</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44406.6044212963</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -47520,10 +46234,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:09</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44406.60427083333</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -47587,10 +46299,8 @@
           <t>5019249777</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:05</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44406.60422453703</v>
       </c>
       <c r="I654" t="n">
         <v>13</v>
@@ -47654,10 +46364,8 @@
           <t>5019236371</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:29:59</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44406.60415509259</v>
       </c>
       <c r="I655" t="n">
         <v>151</v>
@@ -47725,10 +46433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:29:49</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44406.60403935185</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -47788,10 +46494,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:29:34</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44406.60386574074</v>
       </c>
       <c r="I657" t="n">
         <v>6</v>
@@ -47867,10 +46571,8 @@
           <t>5019244003</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:29:34</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44406.60386574074</v>
       </c>
       <c r="I658" t="n">
         <v>1</v>
@@ -47946,10 +46648,8 @@
           <t>5019248100</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:29:20</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44406.6037037037</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48025,10 +46725,8 @@
           <t>5019175796</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:29:18</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44406.60368055556</v>
       </c>
       <c r="I660" t="n">
         <v>7</v>
@@ -48096,10 +46794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:29:09</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44406.60357638889</v>
       </c>
       <c r="I661" t="n">
         <v>136</v>
@@ -48163,10 +46859,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:28:59</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44406.60346064815</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48242,10 +46936,8 @@
           <t>5019250985</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:28:52</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44406.60337962963</v>
       </c>
       <c r="I663" t="n">
         <v>107</v>
@@ -48322,10 +47014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:28:35</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44406.60318287037</v>
       </c>
       <c r="I664" t="n">
         <v>242</v>
@@ -48401,10 +47091,8 @@
           <t>5019246065</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:28:25</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44406.60306712963</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -48480,10 +47168,8 @@
           <t>5019246077</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:28:25</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44406.60306712963</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -48555,10 +47241,8 @@
           <t>5019234920</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:27:55</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44406.60271990741</v>
       </c>
       <c r="I667" t="n">
         <v>2</v>
@@ -48626,10 +47310,8 @@
           <t>5019238656</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:27:44</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44406.60259259259</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -48694,10 +47376,8 @@
           <t>5019229631</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:27:30</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44406.60243055555</v>
       </c>
       <c r="I669" t="n">
         <v>15</v>
@@ -48761,10 +47441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:27:20</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44406.60231481482</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -48832,10 +47510,8 @@
           <t>5019229009</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:27:12</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44406.60222222222</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -48899,10 +47575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:27:05</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44406.6021412037</v>
       </c>
       <c r="I672" t="n">
         <v>1</v>
@@ -48970,10 +47644,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:26:41</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44406.60186342592</v>
       </c>
       <c r="I673" t="n">
         <v>1</v>
@@ -49041,10 +47713,8 @@
           <t>5019236371</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:26:39</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44406.60184027778</v>
       </c>
       <c r="I674" t="n">
         <v>107</v>
@@ -49112,10 +47782,8 @@
           <t>5019231179</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:26:12</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44406.60152777778</v>
       </c>
       <c r="I675" t="n">
         <v>2</v>
@@ -49183,10 +47851,8 @@
           <t>5019226766</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:26:09</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44406.60149305555</v>
       </c>
       <c r="I676" t="n">
         <v>8</v>
@@ -49254,10 +47920,8 @@
           <t>5019226679</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:26:07</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44406.60146990741</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49329,10 +47993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:25:47</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44406.60123842592</v>
       </c>
       <c r="I678" t="n">
         <v>40</v>
@@ -49392,10 +48054,8 @@
           <t>5019223290</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:25:10</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44406.60081018518</v>
       </c>
       <c r="I679" t="n">
         <v>1</v>
@@ -49459,10 +48119,8 @@
           <t>5019202865</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:56</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44406.60064814815</v>
       </c>
       <c r="I680" t="n">
         <v>11</v>
@@ -49522,10 +48180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:50</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44406.60057870371</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -49593,10 +48249,8 @@
           <t>5019217801</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:42</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44406.60048611111</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -49668,10 +48322,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:36</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44406.60041666667</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -49735,10 +48387,8 @@
           <t>5019154999</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:31</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44406.6003587963</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -49802,10 +48452,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:26</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44406.60030092593</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -49873,10 +48521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:22</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44406.60025462963</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -49948,10 +48594,8 @@
           <t>5019216888</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:16</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44406.60018518518</v>
       </c>
       <c r="I687" t="n">
         <v>1</v>
@@ -50015,10 +48659,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:24:05</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44406.60005787037</v>
       </c>
       <c r="I688" t="n">
         <v>5</v>
@@ -50086,10 +48728,8 @@
           <t>5019220827</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:23:58</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44406.59997685185</v>
       </c>
       <c r="I689" t="n">
         <v>2</v>
@@ -50157,10 +48797,8 @@
           <t>5019210539</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:23:12</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44406.59944444444</v>
       </c>
       <c r="I690" t="n">
         <v>16</v>
@@ -50226,10 +48864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:22:53</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44406.59922453704</v>
       </c>
       <c r="I691" t="n">
         <v>2329</v>
@@ -50293,10 +48929,8 @@
           <t>5019202865</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:22:33</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44406.59899305556</v>
       </c>
       <c r="I692" t="n">
         <v>14</v>
@@ -50364,10 +48998,8 @@
           <t>5019197794</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:21:57</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44406.59857638889</v>
       </c>
       <c r="I693" t="n">
         <v>10</v>
@@ -50443,10 +49075,8 @@
           <t>5019172731</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:21:03</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44406.59795138889</v>
       </c>
       <c r="I694" t="n">
         <v>4</v>
@@ -50518,10 +49148,8 @@
           <t>5019193875</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:20:43</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44406.5977199074</v>
       </c>
       <c r="I695" t="n">
         <v>3</v>
@@ -50593,10 +49221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:50</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44406.59710648148</v>
       </c>
       <c r="I696" t="n">
         <v>668</v>
@@ -50664,10 +49290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:42</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44406.59701388889</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -50739,10 +49363,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:36</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44406.59694444444</v>
       </c>
       <c r="I698" t="n">
         <v>57</v>
@@ -50818,10 +49440,8 @@
           <t>5019175796</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:27</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44406.59684027778</v>
       </c>
       <c r="I699" t="n">
         <v>67</v>
@@ -50885,10 +49505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:23</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44406.59679398148</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -50952,10 +49570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:22</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44406.59678240741</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -51019,10 +49635,8 @@
           <t>5019170878</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:06</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44406.59659722223</v>
       </c>
       <c r="I702" t="n">
         <v>8</v>
@@ -51099,10 +49713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:18:44</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44406.59634259259</v>
       </c>
       <c r="I703" t="n">
         <v>3</v>
@@ -51167,10 +49779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:18:22</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44406.59608796296</v>
       </c>
       <c r="I704" t="n">
         <v>1</v>
@@ -51234,10 +49844,8 @@
           <t>5019175796</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:18:13</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44406.59598379629</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
@@ -51313,10 +49921,8 @@
           <t>5019177704</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:56</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44406.59578703704</v>
       </c>
       <c r="I706" t="n">
         <v>2</v>
@@ -51384,10 +49990,8 @@
           <t>5019177410</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:48</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44406.59569444445</v>
       </c>
       <c r="I707" t="n">
         <v>74</v>
@@ -51455,10 +50059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:46</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44406.59567129629</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -51522,10 +50124,8 @@
           <t>5019172731</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:42</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44406.595625</v>
       </c>
       <c r="I709" t="n">
         <v>13</v>
@@ -51597,10 +50197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:38</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44406.5955787037</v>
       </c>
       <c r="I710" t="n">
         <v>7</v>
@@ -51672,10 +50270,8 @@
           <t>5019176929</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:36</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44406.59555555556</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
@@ -51747,10 +50343,8 @@
           <t>5019154999</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:24</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44406.59541666666</v>
       </c>
       <c r="I712" t="n">
         <v>3</v>
@@ -51818,10 +50412,8 @@
           <t>5019176000</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:13</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44406.59528935186</v>
       </c>
       <c r="I713" t="n">
         <v>13</v>
@@ -51893,10 +50485,8 @@
           <t>5019175796</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:08</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44406.59523148148</v>
       </c>
       <c r="I714" t="n">
         <v>19</v>
@@ -51968,10 +50558,8 @@
           <t>5019170878</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:08</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44406.59523148148</v>
       </c>
       <c r="I715" t="n">
         <v>4</v>
@@ -52035,10 +50623,8 @@
           <t>5019171325</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:17:03</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44406.59517361111</v>
       </c>
       <c r="I716" t="n">
         <v>11</v>
@@ -52106,10 +50692,8 @@
           <t>5019170878</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:16:51</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44406.59503472222</v>
       </c>
       <c r="I717" t="n">
         <v>12</v>
@@ -52185,10 +50769,8 @@
           <t>5019164377</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:16:33</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44406.59482638889</v>
       </c>
       <c r="I718" t="n">
         <v>2</v>
@@ -52256,10 +50838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:16:30</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44406.59479166667</v>
       </c>
       <c r="I719" t="n">
         <v>1</v>
@@ -52319,10 +50899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:16:18</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44406.59465277778</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -52386,10 +50964,8 @@
           <t>5019163692</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:16:16</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44406.59462962963</v>
       </c>
       <c r="I721" t="n">
         <v>131</v>
@@ -52457,10 +51033,8 @@
           <t>5019163661</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:16:15</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44406.59461805555</v>
       </c>
       <c r="I722" t="n">
         <v>21</v>
@@ -52532,10 +51106,8 @@
           <t>5019163561</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:16:12</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44406.59458333333</v>
       </c>
       <c r="I723" t="n">
         <v>13</v>
@@ -52603,10 +51175,8 @@
           <t>5019163063</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:59</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44406.59443287037</v>
       </c>
       <c r="I724" t="n">
         <v>5</v>
@@ -52682,10 +51252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:31</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44406.59410879629</v>
       </c>
       <c r="I725" t="n">
         <v>45</v>
@@ -52761,10 +51329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:24</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44406.59402777778</v>
       </c>
       <c r="I726" t="n">
         <v>826</v>
@@ -52840,10 +51406,8 @@
           <t>5019157733</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:23</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44406.5940162037</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -52915,10 +51479,8 @@
           <t>5019157644</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:20</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44406.59398148148</v>
       </c>
       <c r="I728" t="n">
         <v>145</v>
@@ -52990,10 +51552,8 @@
           <t>5019157367</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:12</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44406.59388888889</v>
       </c>
       <c r="I729" t="n">
         <v>180</v>
@@ -53061,10 +51621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:02</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44406.59377314815</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53140,10 +51698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:00</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44406.59375</v>
       </c>
       <c r="I731" t="n">
         <v>1</v>
@@ -53219,10 +51775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:14:50</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44406.59363425926</v>
       </c>
       <c r="I732" t="n">
         <v>162</v>
@@ -53286,10 +51840,8 @@
           <t>5019152200</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:14:50</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44406.59363425926</v>
       </c>
       <c r="I733" t="n">
         <v>74</v>
@@ -53365,10 +51917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:14:46</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44406.59358796296</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -53440,10 +51990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:14:45</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44406.59357638889</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
@@ -53515,10 +52063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:14:17</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44406.59325231481</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
@@ -53582,10 +52128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:14:03</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44406.59309027778</v>
       </c>
       <c r="I737" t="n">
         <v>3</v>
@@ -53653,10 +52197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:53</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44406.59297453704</v>
       </c>
       <c r="I738" t="n">
         <v>540</v>
@@ -53720,10 +52262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:52</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44406.59296296296</v>
       </c>
       <c r="I739" t="n">
         <v>3507</v>
@@ -53787,10 +52327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:44</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44406.59287037037</v>
       </c>
       <c r="I740" t="n">
         <v>1</v>
@@ -53858,10 +52396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:44</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44406.59287037037</v>
       </c>
       <c r="I741" t="n">
         <v>5</v>
@@ -53929,10 +52465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:42</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44406.59284722222</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
@@ -53996,10 +52530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:40</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44406.59282407408</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
@@ -54063,10 +52595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:38</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44406.59280092592</v>
       </c>
       <c r="I744" t="n">
         <v>1</v>
@@ -54138,10 +52668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:32</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44406.59273148148</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
@@ -54209,10 +52737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:27</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44406.59267361111</v>
       </c>
       <c r="I746" t="n">
         <v>159</v>
@@ -54288,10 +52814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:21</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44406.59260416667</v>
       </c>
       <c r="I747" t="n">
         <v>6</v>
@@ -54367,10 +52891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:14</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44406.59252314815</v>
       </c>
       <c r="I748" t="n">
         <v>705</v>
@@ -54430,10 +52952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:12:57</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44406.59232638889</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
@@ -54497,10 +53017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:12:33</t>
-        </is>
+      <c r="H750" s="1" t="n">
+        <v>44406.59204861111</v>
       </c>
       <c r="I750" t="n">
         <v>1</v>
@@ -54564,10 +53082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:12:33</t>
-        </is>
+      <c r="H751" s="1" t="n">
+        <v>44406.59204861111</v>
       </c>
       <c r="I751" t="n">
         <v>1</v>
@@ -54636,10 +53152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:12:32</t>
-        </is>
+      <c r="H752" s="1" t="n">
+        <v>44406.59203703704</v>
       </c>
       <c r="I752" t="n">
         <v>2</v>
@@ -54715,10 +53229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:12:19</t>
-        </is>
+      <c r="H753" s="1" t="n">
+        <v>44406.59188657408</v>
       </c>
       <c r="I753" t="n">
         <v>3</v>
@@ -54786,10 +53298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:12:18</t>
-        </is>
+      <c r="H754" s="1" t="n">
+        <v>44406.591875</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
@@ -54866,10 +53376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:12:15</t>
-        </is>
+      <c r="H755" s="1" t="n">
+        <v>44406.59184027778</v>
       </c>
       <c r="I755" t="n">
         <v>2</v>
@@ -54937,10 +53445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:11:54</t>
-        </is>
+      <c r="H756" s="1" t="n">
+        <v>44406.59159722222</v>
       </c>
       <c r="I756" t="n">
         <v>0</v>
@@ -55016,10 +53522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:11:20</t>
-        </is>
+      <c r="H757" s="1" t="n">
+        <v>44406.59120370371</v>
       </c>
       <c r="I757" t="n">
         <v>1</v>
@@ -55083,10 +53587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:11:01</t>
-        </is>
+      <c r="H758" s="1" t="n">
+        <v>44406.5909837963</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
@@ -55158,10 +53660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:10:59</t>
-        </is>
+      <c r="H759" s="1" t="n">
+        <v>44406.59096064815</v>
       </c>
       <c r="I759" t="n">
         <v>1</v>
@@ -55237,10 +53737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:10:54</t>
-        </is>
+      <c r="H760" s="1" t="n">
+        <v>44406.59090277777</v>
       </c>
       <c r="I760" t="n">
         <v>0</v>
@@ -55308,10 +53806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:10:51</t>
-        </is>
+      <c r="H761" s="1" t="n">
+        <v>44406.59086805556</v>
       </c>
       <c r="I761" t="n">
         <v>0</v>
@@ -55387,10 +53883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:10:44</t>
-        </is>
+      <c r="H762" s="1" t="n">
+        <v>44406.59078703704</v>
       </c>
       <c r="I762" t="n">
         <v>0</v>
@@ -55462,10 +53956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:10:41</t>
-        </is>
+      <c r="H763" s="1" t="n">
+        <v>44406.59075231481</v>
       </c>
       <c r="I763" t="n">
         <v>0</v>
@@ -55537,10 +54029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:10:40</t>
-        </is>
+      <c r="H764" s="1" t="n">
+        <v>44406.59074074074</v>
       </c>
       <c r="I764" t="n">
         <v>2</v>
@@ -55616,10 +54106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:10:35</t>
-        </is>
+      <c r="H765" s="1" t="n">
+        <v>44406.59068287037</v>
       </c>
       <c r="I765" t="n">
         <v>0</v>
